--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241213).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241213).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트앤드_A RAM\FED-Project-LAR\FED-RV-YHS\9999.개인프로젝트\01.분석설계\프로젝트 관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9999.개인프로젝트\01.분석설계\프로젝트 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="160">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,6 +722,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>햄버거 - 서브메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션
+2. 클릭시 해당 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[서브메뉴 추가작업]
+1. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가
+[메인페이지 시작]
+1. 메인페이지 html , css 완료
+2. about us 진행중
+- html 구조 생성 및 배경 제품 이미지 넣는 중
+- 해당 페이지에 들어가는 소스 이름 업데이트 완료
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백
+&amp; 질문 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 진행내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. About us html, CSS 완료
+2. 추천제품소개영역 html 구조 잡고 css 전개중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 서브메뉴 밑줄 애니메이션 피드백
+- 애니메이션을 줄 때에는 해당 요소에 변하는 형태가 보이는 것이 중요함.
+- 가상요소에  hover 를 주는 것이 아니라 해당 태그에 주어야 함. 
+2. 자바스크립트 코드 전개는 나중에 하더라도 페이지 구현에 대한 기능 정의를 우선적으로 해야함.
+(순서를 적으면 됨) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-12 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-13 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-23 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-24 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-20 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-19 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-18 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-17 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-16 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 질문할 부분 제외 추천제품 소개영역 마무리
+2. Lookbook 시작
+- 각 영역 박스 크기설정
+- 세로 텍스트
+- 타이틀, 설명문구 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 탑 상단영역 로고 SVG 색상 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -745,141 +840,77 @@
       </rPr>
       <t xml:space="preserve">
 2. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가하기
-3. 메인페이지 시작하기 -&gt; 룩북 직전까지 마치기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 메인페이지 시작하기 -&gt; 룩북 직전까지 마치기
 4. 메인페이지 인디케이터 어떻게 할지 구상하기
 (서브페이지 인디케이터는 기존에 있는 것 리모델링)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>햄버거 - 서브메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션
-2. 클릭시 해당 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[서브메뉴 추가작업]
-1. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가
-[메인페이지 시작]
-1. 메인페이지 html , css 완료
-2. about us 진행중
-- html 구조 생성 및 배경 제품 이미지 넣는 중
-- 해당 페이지에 들어가는 소스 이름 업데이트 완료
+    <t>1. About us 부터 이어서 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 추천제품소개 영역 부터 이어서 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 피드백 받을 차례이므로 질문 준비
+- 주석으로 달아놓은 질문들 정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드백
-&amp; 질문 답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. About us 부터 이어서 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부 진행내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. About us html, CSS 완료
-2. 추천제품소개영역 html 구조 잡고 css 전개중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. 서브메뉴 밑줄 애니메이션 피드백
-- 애니메이션을 줄 때에는 해당 요소에 변하는 형태가 보이는 것이 중요함.
-- 가상요소에  hover 를 주는 것이 아니라 해당 태그에 주어야 함. 
-2. 자바스크립트 코드 전개는 나중에 하더라도 페이지 구현에 대한 기능 정의를 우선적으로 해야함.
-(순서를 적으면 됨) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 추천제품소개 영역 부터 이어서 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. html, CSS 계획한 일정보다 최대한 빨리 끝내야 함. 자바스크립트 기능 구현에 대해서 생각해볼 수 있기 때문.
-2. 스크롤 하면서 메인페이지 각 영역마다 왼쪽 상단에 위치를 우선적으로 알려줄 수 있는 인디케이터를 놓으면 좋겠다는 생각.
-사용하고 있는 색감들과 너무 벗어나지 않는 범위 내의 스타일이면 좋을 듯.
-페이지 스크롤 내려가면서 영역 나뉠때마다 애니메이션 주면서 인디케이터 해당 페이지에 맞게 변환하면 될 듯.
--&gt; 미디어쿼리까지 마무리하고 서브페이지 넘어가기 전에 디자인 마무리하고 넘어갈 것. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-12 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-13 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-23 (월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-24 (화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-20 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-19 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-18 (수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-17 (화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-16 (월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 질문할 부분 제외 추천제품 소개영역 마무리
-2. Lookbook 시작
-- 각 영역 박스 크기설정
-- 세로 텍스트
-- 타이틀, 설명문구 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 피드백 받을 차례이므로 질문 준비
-- 주석으로 달아놓은 질문들 정리
-2. 룩북, 하단 영역 마무리 후 메인페이지 전체미디어쿼리 시작해야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 메인페이지 목표달성 기한내에 불가
-대책 : 수업 외 작업시간 확보 , 주말에 연장해서 작업 진행.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 질문
-- 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
-- 상단영역 탑메뉴 SVG 색깔 바꾸기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 룩북, 하단 영역 마무리 후 메인페이지 전체미디어쿼리 시작해야 함
+-&gt;13일 혹은 주말내에 완료)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
-2. 자바 스크립트를 넣는 시간이 필요하므로 일정을 최대한 앞당겨서 작업 진행할 것
-3. 로딩 애니메이션은 메인페이지 완성 이후 진행
+2. 자바 스크립트 진도에 따라 배우는 기능들이 있어 필요한 기능을 넣기까지 기다려야하므로 나머지 HTML,CSS, 미디어쿼리 일정을 최대한 앞당겨서 작업 진행할 것
+3. 로딩 애니메이션은 메인페이지 완성 메인페이지 미디어쿼리 이후 진행
 </t>
     </r>
     <r>
@@ -896,6 +927,44 @@
 - 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
 - 상단영역 탑메뉴 SVG 색깔 바꾸기</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[인디케이터 아이디어]
+스크롤 하면서 메인페이지 각 영역마다 왼쪽 상단에 위치를 우선적으로 알려줄 수 있는 인디케이터를 놓으면 좋겠다는 생각.
+사용하고 있는 색감들과 너무 벗어나지 않는 범위 내의 스타일이면 좋을 듯.
+페이지 스크롤 내려가면서 영역 나뉠때마다 애니메이션 주면서 인디케이터 해당 페이지에 맞게 변환하면 될 듯.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; 미디어쿼리까지 마무리하고 서브페이지 넘어가기 전에 인디케이터 디자인 진행하고 넘어갈 것. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인페이지 목표달성 기한내에 불가
+대책 : 수업 외 작업시간 확보해서 진행 , 주말에 연장해서 작업 진행.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 질문
+(common.css)
+1. 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
+2. 레이아웃 작업할 때 원본 페이지처럼 잡기가 어려워서 임의로 잡아서 진행하고 있는데, 이렇게 진행해도 괜찮을지?
+(main.css)
+3. 추천메뉴영역, Lookbook 영역 질문 
+4. 작업영역에 대한 질문
+= 현재 하는 속도로 구현하는 양을 감당할 수 있을지 아니면 줄이는게 나을지
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1586,6 +1655,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1675,12 +1750,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2535,8 +2604,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AD65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:E36"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2554,11 +2623,11 @@
   <sheetData>
     <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
@@ -2570,7 +2639,7 @@
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
@@ -2581,60 +2650,60 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="34">
         <v>45630</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="36"/>
     </row>
     <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="55"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="20">
         <f>I4</f>
         <v>45630</v>
@@ -2725,13 +2794,13 @@
       </c>
     </row>
     <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="47"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="21">
         <f>I5</f>
         <v>45630</v>
@@ -2999,10 +3068,10 @@
     </row>
     <row r="11" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="D11" s="12">
         <v>45630</v>
@@ -3671,7 +3740,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="1"/>
@@ -3715,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="1"/>
@@ -3759,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="1"/>
@@ -3803,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="1"/>
@@ -5226,7 +5295,7 @@
     </row>
     <row r="62" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="12">
@@ -5642,10 +5711,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="D28" sqref="D28"/>
+      <selection pane="topRight" activeCell="H17" sqref="H17:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5655,16 +5724,17 @@
     <col min="3" max="4" width="63.875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="14"/>
       <c r="E2" s="22"/>
       <c r="F2" s="3"/>
@@ -5675,7 +5745,7 @@
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
@@ -5685,78 +5755,78 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="60"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="1:14" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
@@ -5775,31 +5845,31 @@
         <v>130</v>
       </c>
       <c r="F7" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="M7" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="216" x14ac:dyDescent="0.3">
@@ -5813,13 +5883,13 @@
         <v>127</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
@@ -5847,80 +5917,80 @@
       <c r="B10"/>
     </row>
     <row r="11" spans="1:14" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="57" t="s">
+      <c r="M11" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="57" t="s">
+      <c r="N11" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-    </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>111</v>
       </c>
@@ -5937,36 +6007,36 @@
         <v>130</v>
       </c>
       <c r="F14" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="M14" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="408" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>114</v>
@@ -5975,13 +6045,13 @@
         <v>125</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="26"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33" t="s">
+        <v>159</v>
+      </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
@@ -5992,78 +6062,78 @@
     </row>
     <row r="16" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="M17" s="57" t="s">
+      <c r="M17" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -6082,31 +6152,31 @@
         <v>130</v>
       </c>
       <c r="F20" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="M20" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="13" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6117,18 +6187,20 @@
         <v>128</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="26" t="s">
+        <v>151</v>
+      </c>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
@@ -6139,78 +6211,78 @@
     </row>
     <row r="22" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="57" t="s">
+      <c r="L23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="57" t="s">
+      <c r="N23" s="59" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="60"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
@@ -6229,34 +6301,34 @@
         <v>130</v>
       </c>
       <c r="F26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="M26" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" ht="384" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="13" customFormat="1" ht="360" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>113</v>
       </c>
@@ -6265,13 +6337,13 @@
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>158</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>156</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -6287,6 +6359,47 @@
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -6303,47 +6416,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241213).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241213).xlsx
@@ -962,7 +962,8 @@
 2. 레이아웃 작업할 때 원본 페이지처럼 잡기가 어려워서 임의로 잡아서 진행하고 있는데, 이렇게 진행해도 괜찮을지?
 (main.css)
 3. 추천메뉴영역, Lookbook 영역 질문 
-4. 작업영역에 대한 질문
+4. HTML 구조 질문 328번째 행
+5. 작업영역에 대한 질문
 = 현재 하는 속도로 구현하는 양을 감당할 수 있을지 아니면 줄이는게 나을지
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5714,7 +5715,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17:H19"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6034,7 +6035,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="408" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>136</v>
       </c>
@@ -6359,47 +6360,6 @@
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -6416,6 +6376,47 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
